--- a/natmiOut/OldD7/LR-pairs_lrc2p/Icam1-Itgal.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Icam1-Itgal.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.3537793433598</v>
+        <v>14.452709</v>
       </c>
       <c r="H2">
-        <v>13.3537793433598</v>
+        <v>43.358127</v>
       </c>
       <c r="I2">
-        <v>0.1435985692605894</v>
+        <v>0.1476906377370901</v>
       </c>
       <c r="J2">
-        <v>0.1435985692605894</v>
+        <v>0.1476906377370901</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.972107786669922</v>
+        <v>0.9976189999999999</v>
       </c>
       <c r="N2">
-        <v>0.972107786669922</v>
+        <v>2.992857</v>
       </c>
       <c r="O2">
-        <v>0.07292766890090346</v>
+        <v>0.06139866523632875</v>
       </c>
       <c r="P2">
-        <v>0.07292766890090346</v>
+        <v>0.06139866523632876</v>
       </c>
       <c r="Q2">
-        <v>12.98131288115202</v>
+        <v>14.418297099871</v>
       </c>
       <c r="R2">
-        <v>12.98131288115202</v>
+        <v>129.764673898839</v>
       </c>
       <c r="S2">
-        <v>0.01047230891367972</v>
+        <v>0.009068008024959497</v>
       </c>
       <c r="T2">
-        <v>0.01047230891367972</v>
+        <v>0.0090680080249595</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,57 +593,57 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.3537793433598</v>
+        <v>14.452709</v>
       </c>
       <c r="H3">
-        <v>13.3537793433598</v>
+        <v>43.358127</v>
       </c>
       <c r="I3">
-        <v>0.1435985692605894</v>
+        <v>0.1476906377370901</v>
       </c>
       <c r="J3">
-        <v>0.1435985692605894</v>
+        <v>0.1476906377370901</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>12.3576448479694</v>
+        <v>14.969586</v>
       </c>
       <c r="N3">
-        <v>12.3576448479694</v>
+        <v>44.908758</v>
       </c>
       <c r="O3">
-        <v>0.9270723310990966</v>
+        <v>0.9213062296732858</v>
       </c>
       <c r="P3">
-        <v>0.9270723310990966</v>
+        <v>0.9213062296732859</v>
       </c>
       <c r="Q3">
-        <v>165.0212625033904</v>
+        <v>216.351070308474</v>
       </c>
       <c r="R3">
-        <v>165.0212625033904</v>
+        <v>1947.159632776266</v>
       </c>
       <c r="S3">
-        <v>0.1331262603469097</v>
+        <v>0.1360683046116016</v>
       </c>
       <c r="T3">
-        <v>0.1331262603469097</v>
+        <v>0.1360683046116016</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,55 +652,55 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>45.8629981785385</v>
+        <v>14.452709</v>
       </c>
       <c r="H4">
-        <v>45.8629981785385</v>
+        <v>43.358127</v>
       </c>
       <c r="I4">
-        <v>0.4931832967356902</v>
+        <v>0.1476906377370901</v>
       </c>
       <c r="J4">
-        <v>0.4931832967356902</v>
+        <v>0.1476906377370901</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.972107786669922</v>
+        <v>0.2810146666666667</v>
       </c>
       <c r="N4">
-        <v>0.972107786669922</v>
+        <v>0.843044</v>
       </c>
       <c r="O4">
-        <v>0.07292766890090346</v>
+        <v>0.01729510509038539</v>
       </c>
       <c r="P4">
-        <v>0.07292766890090346</v>
+        <v>0.01729510509038539</v>
       </c>
       <c r="Q4">
-        <v>44.58377764938572</v>
+        <v>4.061423202065333</v>
       </c>
       <c r="R4">
-        <v>44.58377764938572</v>
+        <v>36.552808818588</v>
       </c>
       <c r="S4">
-        <v>0.03596670817179644</v>
+        <v>0.002554325100529012</v>
       </c>
       <c r="T4">
-        <v>0.03596670817179644</v>
+        <v>0.002554325100529012</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,60 +714,60 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>45.8629981785385</v>
+        <v>45.91529066666667</v>
       </c>
       <c r="H5">
-        <v>45.8629981785385</v>
+        <v>137.745872</v>
       </c>
       <c r="I5">
-        <v>0.4931832967356902</v>
+        <v>0.4692032864180593</v>
       </c>
       <c r="J5">
-        <v>0.4931832967356902</v>
+        <v>0.4692032864180593</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.3576448479694</v>
+        <v>0.9976189999999999</v>
       </c>
       <c r="N5">
-        <v>12.3576448479694</v>
+        <v>2.992857</v>
       </c>
       <c r="O5">
-        <v>0.9270723310990966</v>
+        <v>0.06139866523632875</v>
       </c>
       <c r="P5">
-        <v>0.9270723310990966</v>
+        <v>0.06139866523632876</v>
       </c>
       <c r="Q5">
-        <v>566.7586431534462</v>
+        <v>45.80596635958933</v>
       </c>
       <c r="R5">
-        <v>566.7586431534462</v>
+        <v>412.253697236304</v>
       </c>
       <c r="S5">
-        <v>0.4572165885638937</v>
+        <v>0.0288084555105677</v>
       </c>
       <c r="T5">
-        <v>0.4572165885638937</v>
+        <v>0.0288084555105677</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,60 +776,60 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>32.6620531093463</v>
+        <v>45.91529066666667</v>
       </c>
       <c r="H6">
-        <v>32.6620531093463</v>
+        <v>137.745872</v>
       </c>
       <c r="I6">
-        <v>0.3512282159992213</v>
+        <v>0.4692032864180593</v>
       </c>
       <c r="J6">
-        <v>0.3512282159992213</v>
+        <v>0.4692032864180593</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.972107786669922</v>
+        <v>14.969586</v>
       </c>
       <c r="N6">
-        <v>0.972107786669922</v>
+        <v>44.908758</v>
       </c>
       <c r="O6">
-        <v>0.07292766890090346</v>
+        <v>0.9213062296732858</v>
       </c>
       <c r="P6">
-        <v>0.07292766890090346</v>
+        <v>0.9213062296732859</v>
       </c>
       <c r="Q6">
-        <v>31.75103615622208</v>
+        <v>687.332892349664</v>
       </c>
       <c r="R6">
-        <v>31.75103615622208</v>
+        <v>6185.996031146977</v>
       </c>
       <c r="S6">
-        <v>0.02561425504504621</v>
+        <v>0.432279910760137</v>
       </c>
       <c r="T6">
-        <v>0.02561425504504621</v>
+        <v>0.4322799107601371</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>32.6620531093463</v>
+        <v>45.91529066666667</v>
       </c>
       <c r="H7">
-        <v>32.6620531093463</v>
+        <v>137.745872</v>
       </c>
       <c r="I7">
-        <v>0.3512282159992213</v>
+        <v>0.4692032864180593</v>
       </c>
       <c r="J7">
-        <v>0.3512282159992213</v>
+        <v>0.4692032864180593</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>12.3576448479694</v>
+        <v>0.2810146666666667</v>
       </c>
       <c r="N7">
-        <v>12.3576448479694</v>
+        <v>0.843044</v>
       </c>
       <c r="O7">
-        <v>0.9270723310990966</v>
+        <v>0.01729510509038539</v>
       </c>
       <c r="P7">
-        <v>0.9270723310990966</v>
+        <v>0.01729510509038539</v>
       </c>
       <c r="Q7">
-        <v>403.6260523308163</v>
+        <v>12.90287010159645</v>
       </c>
       <c r="R7">
-        <v>403.6260523308163</v>
+        <v>116.125830914368</v>
       </c>
       <c r="S7">
-        <v>0.3256139609541751</v>
+        <v>0.008114920147354531</v>
       </c>
       <c r="T7">
-        <v>0.3256139609541751</v>
+        <v>0.008114920147354533</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -903,57 +903,57 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.11498826347291</v>
+        <v>36.015061</v>
       </c>
       <c r="H8">
-        <v>1.11498826347291</v>
+        <v>108.045183</v>
       </c>
       <c r="I8">
-        <v>0.01198991800449919</v>
+        <v>0.3680339324088102</v>
       </c>
       <c r="J8">
-        <v>0.01198991800449919</v>
+        <v>0.3680339324088103</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.972107786669922</v>
+        <v>0.9976189999999999</v>
       </c>
       <c r="N8">
-        <v>0.972107786669922</v>
+        <v>2.992857</v>
       </c>
       <c r="O8">
-        <v>0.07292766890090346</v>
+        <v>0.06139866523632875</v>
       </c>
       <c r="P8">
-        <v>0.07292766890090346</v>
+        <v>0.06139866523632876</v>
       </c>
       <c r="Q8">
-        <v>1.08388877296759</v>
+        <v>35.929309139759</v>
       </c>
       <c r="R8">
-        <v>1.08388877296759</v>
+        <v>323.363782257831</v>
       </c>
       <c r="S8">
-        <v>0.0008743967703810978</v>
+        <v>0.02259679221157818</v>
       </c>
       <c r="T8">
-        <v>0.0008743967703810978</v>
+        <v>0.02259679221157819</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -965,52 +965,300 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.11498826347291</v>
+        <v>36.015061</v>
       </c>
       <c r="H9">
-        <v>1.11498826347291</v>
+        <v>108.045183</v>
       </c>
       <c r="I9">
-        <v>0.01198991800449919</v>
+        <v>0.3680339324088102</v>
       </c>
       <c r="J9">
-        <v>0.01198991800449919</v>
+        <v>0.3680339324088103</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.3576448479694</v>
+        <v>14.969586</v>
       </c>
       <c r="N9">
-        <v>12.3576448479694</v>
+        <v>44.908758</v>
       </c>
       <c r="O9">
-        <v>0.9270723310990966</v>
+        <v>0.9213062296732858</v>
       </c>
       <c r="P9">
-        <v>0.9270723310990966</v>
+        <v>0.9213062296732859</v>
       </c>
       <c r="Q9">
-        <v>13.77862896965235</v>
+        <v>539.130552934746</v>
       </c>
       <c r="R9">
-        <v>13.77862896965235</v>
+        <v>4852.174976412714</v>
       </c>
       <c r="S9">
-        <v>0.01111552123411809</v>
+        <v>0.3390719546593938</v>
       </c>
       <c r="T9">
-        <v>0.01111552123411809</v>
+        <v>0.3390719546593939</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>36.015061</v>
+      </c>
+      <c r="H10">
+        <v>108.045183</v>
+      </c>
+      <c r="I10">
+        <v>0.3680339324088102</v>
+      </c>
+      <c r="J10">
+        <v>0.3680339324088103</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.2810146666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.843044</v>
+      </c>
+      <c r="O10">
+        <v>0.01729510509038539</v>
+      </c>
+      <c r="P10">
+        <v>0.01729510509038539</v>
+      </c>
+      <c r="Q10">
+        <v>10.12076036189467</v>
+      </c>
+      <c r="R10">
+        <v>91.08684325705201</v>
+      </c>
+      <c r="S10">
+        <v>0.006365185537838167</v>
+      </c>
+      <c r="T10">
+        <v>0.006365185537838168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.474929666666667</v>
+      </c>
+      <c r="H11">
+        <v>4.424789000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.01507214343604052</v>
+      </c>
+      <c r="J11">
+        <v>0.01507214343604052</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.9976189999999999</v>
+      </c>
+      <c r="N11">
+        <v>2.992857</v>
+      </c>
+      <c r="O11">
+        <v>0.06139866523632875</v>
+      </c>
+      <c r="P11">
+        <v>0.06139866523632876</v>
+      </c>
+      <c r="Q11">
+        <v>1.471417859130334</v>
+      </c>
+      <c r="R11">
+        <v>13.242760732173</v>
+      </c>
+      <c r="S11">
+        <v>0.0009254094892233818</v>
+      </c>
+      <c r="T11">
+        <v>0.0009254094892233819</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.474929666666667</v>
+      </c>
+      <c r="H12">
+        <v>4.424789000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.01507214343604052</v>
+      </c>
+      <c r="J12">
+        <v>0.01507214343604052</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>14.969586</v>
+      </c>
+      <c r="N12">
+        <v>44.908758</v>
+      </c>
+      <c r="O12">
+        <v>0.9213062296732858</v>
+      </c>
+      <c r="P12">
+        <v>0.9213062296732859</v>
+      </c>
+      <c r="Q12">
+        <v>22.079086489118</v>
+      </c>
+      <c r="R12">
+        <v>198.711778402062</v>
+      </c>
+      <c r="S12">
+        <v>0.01388605964215346</v>
+      </c>
+      <c r="T12">
+        <v>0.01388605964215346</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.474929666666667</v>
+      </c>
+      <c r="H13">
+        <v>4.424789000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.01507214343604052</v>
+      </c>
+      <c r="J13">
+        <v>0.01507214343604052</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.2810146666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.843044</v>
+      </c>
+      <c r="O13">
+        <v>0.01729510509038539</v>
+      </c>
+      <c r="P13">
+        <v>0.01729510509038539</v>
+      </c>
+      <c r="Q13">
+        <v>0.4144768686351112</v>
+      </c>
+      <c r="R13">
+        <v>3.730291817716</v>
+      </c>
+      <c r="S13">
+        <v>0.0002606743046636832</v>
+      </c>
+      <c r="T13">
+        <v>0.0002606743046636832</v>
       </c>
     </row>
   </sheetData>
